--- a/pearson.xlsx
+++ b/pearson.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="58">
   <si>
     <t>Degree.of.Time.Constraint</t>
   </si>
@@ -62,16 +62,22 @@
     <t>-0.2252</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.1306</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.2854</t>
+    <t xml:space="preserve"> 0.2588</t>
   </si>
   <si>
     <t xml:space="preserve">     NA</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.3295</t>
+    <t>-0.2427</t>
+  </si>
+  <si>
+    <t>-0.0167</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1335</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1114</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.3370</t>
@@ -83,13 +89,19 @@
     <t xml:space="preserve"> 0.6900</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.3715</t>
-  </si>
-  <si>
-    <t>-0.3796</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.1232</t>
+    <t>-0.4275</t>
+  </si>
+  <si>
+    <t>-0.0448</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1480</t>
+  </si>
+  <si>
+    <t>-0.1995</t>
+  </si>
+  <si>
+    <t>-0.0597</t>
   </si>
   <si>
     <t>-0.0951</t>
@@ -98,43 +110,82 @@
     <t xml:space="preserve"> 0.5651</t>
   </si>
   <si>
-    <t>-0.2700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.1140</t>
-  </si>
-  <si>
-    <t>-0.2002</t>
+    <t>-0.2899</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1929</t>
+  </si>
+  <si>
+    <t>-0.0423</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3382</t>
+  </si>
+  <si>
+    <t>-0.1773</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.0238</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.1325</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.2159</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.2841</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.1434</t>
-  </si>
-  <si>
-    <t>-0.0077</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.1425</t>
-  </si>
-  <si>
-    <t>-0.3750</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.7737</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.2971</t>
+    <t xml:space="preserve"> 0.2030</t>
+  </si>
+  <si>
+    <t>-0.1621</t>
+  </si>
+  <si>
+    <t>-0.2929</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3112</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1766</t>
+  </si>
+  <si>
+    <t>-0.1110</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0205</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1817</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.2401</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0916</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0466</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0147</t>
+  </si>
+  <si>
+    <t>-0.1843</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.6609</t>
+  </si>
+  <si>
+    <t>-0.3953</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.3162</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.1073</t>
+  </si>
+  <si>
+    <t>-0.1250</t>
+  </si>
+  <si>
+    <t>-0.0321</t>
+  </si>
+  <si>
+    <t>-0.1559</t>
   </si>
 </sst>
 </file>
@@ -250,13 +301,13 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -270,31 +321,31 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -305,34 +356,34 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -343,34 +394,34 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -381,34 +432,34 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -419,34 +470,34 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -457,34 +508,34 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -495,34 +546,34 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -530,37 +581,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -568,37 +619,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -606,37 +657,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
